--- a/Design/Backup/프로토타입 리소스 - 달리기.xlsx
+++ b/Design/Backup/프로토타입 리소스 - 달리기.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="28035" windowHeight="13020"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="24240" windowHeight="13020"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="리소스" sheetId="1" r:id="rId1"/>
+    <sheet name="애니메이션 리스트" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="114">
   <si>
     <t>배경</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -229,6 +229,234 @@
   </si>
   <si>
     <t>달리기 프로토타입 리소스(애니메이션 제외)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>달리기 프로토타입 애니메이션 리스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그로기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노멀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피버</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이들</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>걷기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조깅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>달리기1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>달리기2</t>
+  </si>
+  <si>
+    <t>달리기3</t>
+  </si>
+  <si>
+    <t>스탠스별
+기본</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낙상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>액션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복귀1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복귀2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물먹기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>normal_idle_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>normal_walk_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>normal_jogging_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>normal_running1_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>normal_running2_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>normal_running3_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>groggy_idle_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>groggy_walk_01</t>
+  </si>
+  <si>
+    <t>groggy_jogging_01</t>
+  </si>
+  <si>
+    <t>groggy_running1_01</t>
+  </si>
+  <si>
+    <t>groggy_running2_01</t>
+  </si>
+  <si>
+    <t>groggy_running3_01</t>
+  </si>
+  <si>
+    <t>fever_idle_01</t>
+  </si>
+  <si>
+    <t>fever_walk_01</t>
+  </si>
+  <si>
+    <t>fever_jogging_01</t>
+  </si>
+  <si>
+    <t>fever_running1_01</t>
+  </si>
+  <si>
+    <t>fever_running2_01</t>
+  </si>
+  <si>
+    <t>fever_running3_01</t>
+  </si>
+  <si>
+    <t>event_care_fall_action_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>event_care_fall_idle_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>event_care_fall_result1_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>event_care_fall_result2_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>event_care_water_action_01</t>
+  </si>
+  <si>
+    <t>event_care_water_idle_01</t>
+  </si>
+  <si>
+    <t>event_care_water_result1_01</t>
+  </si>
+  <si>
+    <t>event_care_water_result2_01</t>
+  </si>
+  <si>
+    <t>설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>터치 피드백</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우선순위 하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>머리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가슴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자세한 설명은 생략 ;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>feedback_touch_normal_head_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>feedback_touch_normal_body_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>feedback_touch_groggy_head_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>feedback_touch_groggy_body_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>feedback_touch_fever_head_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>feedback_touch_fever_body_01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -336,7 +564,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -345,6 +573,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -358,8 +601,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -367,23 +616,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -707,6 +941,54 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2523145</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>18314</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="209550" y="7038975"/>
+          <a:ext cx="7847620" cy="5885715"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
@@ -997,7 +1279,7 @@
   <dimension ref="B1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1006,14 +1288,14 @@
     <col min="2" max="2" width="9" style="2"/>
     <col min="3" max="3" width="20.5" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="61.25" style="7" customWidth="1"/>
+    <col min="5" max="5" width="61.25" style="4" customWidth="1"/>
     <col min="6" max="6" width="34.5" style="2" customWidth="1"/>
     <col min="7" max="7" width="34.5" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="7" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1038,7 +1320,7 @@
       </c>
     </row>
     <row r="3" spans="2:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1047,50 +1329,50 @@
       <c r="D3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="16" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="1"/>
-      <c r="G3" s="8"/>
+      <c r="G3" s="15"/>
     </row>
     <row r="4" spans="2:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="5"/>
+      <c r="B4" s="10"/>
       <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="10"/>
+      <c r="E4" s="13"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="5"/>
+      <c r="G4" s="10"/>
     </row>
     <row r="5" spans="2:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="5"/>
+      <c r="B5" s="10"/>
       <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="10"/>
+      <c r="E5" s="13"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="5"/>
+      <c r="G5" s="10"/>
     </row>
     <row r="6" spans="2:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="6"/>
+      <c r="B6" s="11"/>
       <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="11"/>
+      <c r="E6" s="14"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="6"/>
+      <c r="G6" s="11"/>
     </row>
     <row r="7" spans="2:7" ht="219" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -1099,28 +1381,28 @@
       <c r="D7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="2:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="6"/>
+      <c r="B8" s="11"/>
       <c r="C8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="6" t="s">
         <v>16</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -1129,92 +1411,92 @@
       <c r="D9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="12" t="s">
         <v>34</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="5"/>
+      <c r="B10" s="10"/>
       <c r="C10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="10"/>
+      <c r="E10" s="13"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="5"/>
+      <c r="B11" s="10"/>
       <c r="C11" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="10"/>
+      <c r="E11" s="13"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="5"/>
+      <c r="B12" s="10"/>
       <c r="C12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="11"/>
+      <c r="E12" s="14"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="5"/>
+      <c r="B13" s="10"/>
       <c r="C13" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="5" t="s">
         <v>35</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="5"/>
+      <c r="B14" s="10"/>
       <c r="C14" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="5" t="s">
         <v>30</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="5"/>
+      <c r="B15" s="10"/>
       <c r="C15" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -1223,38 +1505,38 @@
       <c r="D16" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F16" s="4"/>
+      <c r="F16" s="9"/>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="3"/>
+      <c r="B17" s="8"/>
       <c r="C17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="5"/>
+      <c r="F17" s="10"/>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="3"/>
+      <c r="B18" s="8"/>
       <c r="C18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="6"/>
+      <c r="F18" s="11"/>
       <c r="G18" s="1"/>
     </row>
   </sheetData>
@@ -1277,14 +1559,591 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:H34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="2.75" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9" style="2"/>
+    <col min="6" max="6" width="31.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="50.625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="22.125" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="B1" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="7"/>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" s="10"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" s="10"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="3">
+        <v>6</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="3">
+        <v>7</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="3">
+        <v>8</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10" s="10"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="3">
+        <v>9</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G11" s="10"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="3">
+        <v>10</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G12" s="10"/>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="3">
+        <v>11</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G13" s="10"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="3">
+        <v>12</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G14" s="10"/>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="3">
+        <v>13</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G15" s="10"/>
+      <c r="H15" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="3">
+        <v>14</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="10"/>
+      <c r="H16" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="3">
+        <v>15</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G17" s="10"/>
+      <c r="H17" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="3">
+        <v>16</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G18" s="10"/>
+      <c r="H18" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="3">
+        <v>17</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G19" s="10"/>
+      <c r="H19" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="3">
+        <v>18</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G20" s="10"/>
+      <c r="H20" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="3">
+        <v>19</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G21" s="10"/>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="3">
+        <v>20</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G22" s="10"/>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" s="3">
+        <v>21</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G23" s="10"/>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24" s="3">
+        <v>22</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G24" s="10"/>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B25" s="3">
+        <v>23</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G25" s="10"/>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B26" s="3">
+        <v>24</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G26" s="10"/>
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B27" s="3">
+        <v>25</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G27" s="10"/>
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B28" s="3">
+        <v>26</v>
+      </c>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G28" s="10"/>
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B29" s="3">
+        <v>27</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G29" s="10"/>
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B30" s="3">
+        <v>28</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G30" s="10"/>
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B31" s="3">
+        <v>29</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G31" s="10"/>
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B32" s="3">
+        <v>30</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G32" s="10"/>
+      <c r="H32" s="3"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B33" s="3">
+        <v>31</v>
+      </c>
+      <c r="C33" s="8"/>
+      <c r="D33" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G33" s="10"/>
+      <c r="H33" s="3"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B34" s="3">
+        <v>32</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G34" s="11"/>
+      <c r="H34" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="C29:C34"/>
+    <mergeCell ref="G3:G34"/>
+    <mergeCell ref="D3:D8"/>
+    <mergeCell ref="D9:D14"/>
+    <mergeCell ref="D15:D20"/>
+    <mergeCell ref="C3:C20"/>
+    <mergeCell ref="D21:D24"/>
+    <mergeCell ref="D25:D28"/>
+    <mergeCell ref="C21:C28"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
